--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H2">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>0.401817107421</v>
+        <v>0.231072428209</v>
       </c>
       <c r="R2">
-        <v>3.616353966788999</v>
+        <v>2.079651853881</v>
       </c>
       <c r="S2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="T2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H3">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>1.314283594563</v>
+        <v>0.7923477624603333</v>
       </c>
       <c r="R3">
-        <v>11.828552351067</v>
+        <v>7.131129862143</v>
       </c>
       <c r="S3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="T3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H4">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>0.270247214385</v>
+        <v>0.3098392545305556</v>
       </c>
       <c r="R4">
-        <v>2.432224929465</v>
+        <v>2.788553290775</v>
       </c>
       <c r="S4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="T4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H5">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.002950051337999999</v>
+        <v>0.001482493058666667</v>
       </c>
       <c r="R5">
-        <v>0.026550462042</v>
+        <v>0.013342437528</v>
       </c>
       <c r="S5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="T5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
     </row>
   </sheetData>
